--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -70,40 +69,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-掉落ID：几率（万分比）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -166,54 +133,6 @@
   </si>
   <si>
     <t>生命比例加成</t>
-  </si>
-  <si>
-    <t>所属地图</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>掉落金币</t>
-  </si>
-  <si>
-    <t>地图Id掉落</t>
-  </si>
-  <si>
-    <t>掉落概率列表</t>
-  </si>
-  <si>
-    <t>MapId</t>
-  </si>
-  <si>
-    <t>PhyAttr</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>DropIdList</t>
-  </si>
-  <si>
-    <t>DropRateList</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1107,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1913,189 +1832,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -19,7 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,69 +43,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-掉落ID：几率（万分比）</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Attr</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Increa</t>
-  </si>
-  <si>
-    <t>RewardId</t>
-  </si>
-  <si>
-    <t>RewardBase</t>
-  </si>
-  <si>
-    <t>RewardIncrea</t>
-  </si>
-  <si>
-    <t>SkillIdList</t>
-  </si>
-  <si>
-    <t>PhanSkillIdList</t>
-  </si>
-  <si>
-    <t>#des</t>
   </si>
   <si>
     <t>Id</t>
@@ -117,22 +65,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>幻神鸡王</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>12001,13001</t>
-  </si>
-  <si>
-    <t>生命比例加成</t>
   </si>
 </sst>
 </file>
@@ -784,7 +717,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1104,55 +1036,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="13" width="13.375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="30.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1161,670 +1075,216 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:15">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:5">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>500000</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:14">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:4">
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:14">
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:4">
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:5">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:5">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:5">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:5">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:5">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:5">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:5">
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:5">
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:5">
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:5">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:5">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:5">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:5">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:5">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:5">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:5">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:5">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:5">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:5">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:5">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:5">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:5">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:5">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:5">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:5">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:5">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:5">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:5">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:5">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:5">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:5">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:15">
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:5">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 E4 F4 G4 H4 I4 J4 E5 F5 G5 H5 I5 J5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>幻神鸡王</t>
+  </si>
+  <si>
+    <t>幻神鹿王</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1115,8 +1118,12 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:4">
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:4">
       <c r="C8"/>

--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -70,11 +70,14 @@
   <si>
     <t>幻神鹿王</t>
   </si>
+  <si>
+    <t>幻神草王</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -103,6 +106,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -116,6 +147,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,14 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +215,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -191,21 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -220,28 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +276,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,24 +342,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,18 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,36 +402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,24 +426,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,12 +445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +467,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,21 +514,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,148 +570,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,52 +726,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1042,7 +1045,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1126,8 +1129,12 @@
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:4">
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:5">
       <c r="C9"/>

--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -73,11 +73,20 @@
   <si>
     <t>幻神草王</t>
   </si>
+  <si>
+    <t>幻神战士</t>
+  </si>
+  <si>
+    <t>幻神法师</t>
+  </si>
+  <si>
+    <t>幻神道士</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -106,34 +115,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,14 +128,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +172,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -244,7 +232,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,49 +285,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,121 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,6 +508,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,148 +579,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,52 +735,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1045,7 +1054,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1137,18 +1146,30 @@
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:5">
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:5">
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:5">
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
       <c r="E11"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:5">

--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -9,46 +9,25 @@
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
--1 没有
-0 随机
-&gt;0 对应模型</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -81,19 +60,28 @@
   </si>
   <si>
     <t>幻神道士</t>
+  </si>
+  <si>
+    <t>幻神猫王</t>
+  </si>
+  <si>
+    <t>幻神花王</t>
+  </si>
+  <si>
+    <t>幻神雪王</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +94,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -257,17 +252,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -594,144 +578,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,271 +1036,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="8.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:5">
-      <c r="C6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:4">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:4">
-      <c r="C7">
+    </row>
+    <row r="7" customHeight="1" spans="3:4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:4">
-      <c r="C8">
+    <row r="8" customHeight="1" spans="3:4">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:5">
-      <c r="C9">
+    <row r="9" customHeight="1" spans="3:4">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:5">
-      <c r="C10">
+    </row>
+    <row r="10" customHeight="1" spans="3:4">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:5">
-      <c r="C11">
+    </row>
+    <row r="11" customHeight="1" spans="3:4">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:5">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:5">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:5">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:5">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:5">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:5">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:5">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:5">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:5">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:5">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:5">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:5">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:5">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:5">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:5">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:5">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:5">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:5">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:5">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:5">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:5">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:5">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:5">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:5">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:5">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:5">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:5">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:5">
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:5">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:4">
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:4">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:4">
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:4">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:4">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:4">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:4">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:4">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:4">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:4">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1325,6 +1285,5 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -56,12 +59,21 @@
     <t>幻神战士</t>
   </si>
   <si>
+    <t>只有战士技能，才能造成伤害</t>
+  </si>
+  <si>
     <t>幻神法师</t>
   </si>
   <si>
+    <t>只有法师技能，才能造成伤害</t>
+  </si>
+  <si>
     <t>幻神道士</t>
   </si>
   <si>
+    <t>只有道士技能，才能造成伤害</t>
+  </si>
+  <si>
     <t>幻神猫王</t>
   </si>
   <si>
@@ -69,6 +81,18 @@
   </si>
   <si>
     <t>幻神雪王</t>
+  </si>
+  <si>
+    <t>幻神蝠王</t>
+  </si>
+  <si>
+    <t>幻神骷髅王</t>
+  </si>
+  <si>
+    <t>幻神尸王</t>
+  </si>
+  <si>
+    <t>幻神蛇王</t>
   </si>
 </sst>
 </file>
@@ -708,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,7 +740,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,7 +1062,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="5"/>
@@ -1048,7 +1071,7 @@
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
@@ -1056,13 +1079,11 @@
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -1074,212 +1095,274 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:4">
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:4">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:5">
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:4">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:5">
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:4">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:5">
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:4">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:5">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:4">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
+      <c r="C18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 E4 E5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PhantomConfig.xlsx
+++ b/Excel/PhantomConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>幻神蛇王</t>
+  </si>
+  <si>
+    <t>幻神狼王</t>
+  </si>
+  <si>
+    <t>幻神虫王</t>
+  </si>
+  <si>
+    <t>幻神鹰王</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1071,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="5"/>
@@ -1251,18 +1260,30 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" customHeight="1" spans="3:5">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customHeight="1" spans="3:5">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customHeight="1" spans="3:5">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="3:5">
